--- a/teamL_test.xlsx
+++ b/teamL_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_horiuchi\Documents\技術研修\三目並べ\test_L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_horiuchi\Documents\技術研修\三目並べ\tic_tac_toe_L\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDE54F5-EC5D-43D9-9C44-69D1F999B16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4998B2C5-3E27-4C34-B99B-0FE42FCA273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A41A80FF-429E-4427-8AAF-652376A4E776}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
   <si>
     <t>関数</t>
     <rPh sb="0" eb="2">
@@ -373,13 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数：turn = '1'</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>引数：input = '1'</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
@@ -856,6 +849,23 @@
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面に何も表示されず、ビープ音が鳴る</t>
+    <rPh sb="3" eb="4">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数：turn = 07（'\a'）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1787,11 +1797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BD37B1-21FE-4142-B38F-DAD4FD250A50}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B43" sqref="B43"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1824,19 +1834,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="97.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1846,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -1856,7 +1866,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -1866,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -1876,7 +1886,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1886,7 +1896,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1922,301 +1932,301 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="11"/>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" s="9" customFormat="1" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="11"/>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="11"/>
+      <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="10"/>
-      <c r="B34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="10"/>
       <c r="B35" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="10"/>
       <c r="B36" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="5"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2226,7 +2236,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -2236,118 +2246,118 @@
         <v>93</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="11"/>
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="5" t="s">
+      <c r="C44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="11"/>
+      <c r="B45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="5"/>
-      <c r="B46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="13"/>
+      <c r="B47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="13" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="11"/>
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="5"/>
+      <c r="B49" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="C49" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="11"/>
+      <c r="B50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
       <c r="B53" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>14</v>
@@ -2357,7 +2367,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
       <c r="B54" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>14</v>
@@ -2367,7 +2377,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>14</v>
@@ -2377,138 +2387,148 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
       <c r="B56" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
       <c r="B57" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="13"/>
+      <c r="B58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
       <c r="B59" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C59" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="5"/>
+      <c r="B60" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="11"/>
+      <c r="B61" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="13"/>
-    </row>
-    <row r="60" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="11"/>
-      <c r="B60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="6" t="s">
+      <c r="C61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="6"/>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="6"/>
+      <c r="B64" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="11"/>
+      <c r="B65" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="13"/>
-    </row>
-    <row r="64" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="11"/>
-      <c r="B64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="2" t="s">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="5" t="s">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="5"/>
-      <c r="B67" s="4" t="s">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
